--- a/시장분석용_정보/시장분석용_4824033000.xlsx
+++ b/시장분석용_정보/시장분석용_4824033000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,40 +160,85 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202001 3054209094</t>
-  </si>
-  <si>
-    <t>202002 3054209094</t>
-  </si>
-  <si>
-    <t>202009 3054209094</t>
-  </si>
-  <si>
-    <t>202010 3054209094</t>
-  </si>
-  <si>
-    <t>202012 3054209094</t>
-  </si>
-  <si>
-    <t>202103 3054209094</t>
-  </si>
-  <si>
-    <t>202203 3054209094</t>
-  </si>
-  <si>
-    <t>202204 3054209094</t>
-  </si>
-  <si>
-    <t>202205 3054209094</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>3054209094 202001</t>
+  </si>
+  <si>
+    <t>3054209094 202002</t>
+  </si>
+  <si>
+    <t>3054209094 202009</t>
+  </si>
+  <si>
+    <t>3054209094 202010</t>
+  </si>
+  <si>
+    <t>3054209094 202012</t>
+  </si>
+  <si>
+    <t>3054209094 202103</t>
+  </si>
+  <si>
+    <t>3054209094 202203</t>
+  </si>
+  <si>
+    <t>3054209094 202204</t>
+  </si>
+  <si>
+    <t>3054209094 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxMTkxIzExIyQxIyQzIyQ4OSQzNjEwMDIjNDEjJDEjJDQjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>하나치과의원</t>
   </si>
   <si>
     <t>경상남도 사천시 용현면 대밭담로 5-9 4층</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMSMkNCMkNzIkMzgxMTkxIzExIyQxIyQzIyQ4OSQzNjEwMDIjNDEjJDEjJDQjJDgz</t>
   </si>
   <si>
     <t>치과</t>
@@ -506,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,43 +702,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>4726</v>
+        <v>2481</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>103974085</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>3054209094</v>
       </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J2">
+        <v>4824033000</v>
+      </c>
+      <c r="K2">
         <v>42.42424242424243</v>
       </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2">
-        <v>4824033000</v>
+      <c r="L2" t="s">
+        <v>75</v>
       </c>
       <c r="M2">
         <v>4673944</v>
@@ -657,17 +840,17 @@
         <v>454000</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>99.12</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
@@ -678,75 +861,165 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>99.12</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>0.88</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>100</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>100</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>99.12</v>
+      </c>
+      <c r="BB2">
+        <v>0.88</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>99.12</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0.88</v>
+      </c>
+      <c r="BI2">
+        <v>0.88</v>
+      </c>
+      <c r="BJ2">
+        <v>50</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>26252</v>
+        <v>5250</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>103974085</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>3054209094</v>
       </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J3">
+        <v>4824033000</v>
+      </c>
+      <c r="K3">
         <v>42.42424242424243</v>
       </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3">
-        <v>4824033000</v>
+      <c r="L3" t="s">
+        <v>75</v>
       </c>
       <c r="M3">
         <v>4688250</v>
@@ -758,7 +1031,7 @@
         <v>459800</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -767,87 +1040,177 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>97.87</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2.13</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2.13</v>
+      </c>
+      <c r="AA3">
         <v>97.87</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>97.87</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <v>2.13</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>97.87</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>2.13</v>
       </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>2.13</v>
+      </c>
+      <c r="BB3">
+        <v>97.87</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>2.13</v>
+      </c>
+      <c r="BH3">
+        <v>2.13</v>
+      </c>
+      <c r="BI3">
+        <v>100</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>177374</v>
+        <v>24640</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4">
         <v>202009</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>103974085</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>3054209094</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J4">
+        <v>4824033000</v>
+      </c>
+      <c r="K4">
         <v>42.42424242424243</v>
       </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>4824033000</v>
+      <c r="L4" t="s">
+        <v>75</v>
       </c>
       <c r="M4">
         <v>7717229</v>
@@ -859,7 +1222,7 @@
         <v>754500</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -868,87 +1231,177 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>0.6</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>99.40000000000001</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>99.40000000000001</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>0.6</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0.6</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>50</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>199102</v>
+        <v>27429</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
         <v>202010</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>103974085</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>3054209094</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J5">
+        <v>4824033000</v>
+      </c>
+      <c r="K5">
         <v>42.42424242424243</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5">
-        <v>4824033000</v>
+      <c r="L5" t="s">
+        <v>75</v>
       </c>
       <c r="M5">
         <v>12828266</v>
@@ -960,7 +1413,7 @@
         <v>1254100</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -978,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -987,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1002,54 +1455,144 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>100</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>0.33</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>99.67</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>99.67</v>
+      </c>
+      <c r="BC5">
+        <v>0.33</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.33</v>
+      </c>
+      <c r="BH5">
+        <v>100</v>
+      </c>
+      <c r="BI5">
+        <v>100</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>242656</v>
+        <v>33013</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
         <v>202012</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>103974085</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>3054209094</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J6">
+        <v>4824033000</v>
+      </c>
+      <c r="K6">
         <v>42.42424242424243</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6">
-        <v>4824033000</v>
+      <c r="L6" t="s">
+        <v>75</v>
       </c>
       <c r="M6">
         <v>4657856</v>
@@ -1061,23 +1604,23 @@
         <v>457850</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>1.71</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>98.29000000000001</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
@@ -1091,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1100,57 +1643,147 @@
         <v>0</v>
       </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1.71</v>
+      </c>
+      <c r="AH6">
         <v>98.29000000000001</v>
       </c>
-      <c r="AD6">
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="AT6">
         <v>1.71</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>1.71</v>
+      </c>
+      <c r="BA6">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>100</v>
+      </c>
+      <c r="BI6">
+        <v>100</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>308129</v>
+        <v>41399</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
         <v>202103</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="E7">
-        <v>103974085</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>3054209094</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J7">
+        <v>4824033000</v>
+      </c>
+      <c r="K7">
         <v>42.42424242424243</v>
       </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7">
-        <v>4824033000</v>
+      <c r="L7" t="s">
+        <v>75</v>
       </c>
       <c r="M7">
         <v>7083664</v>
@@ -1162,26 +1795,26 @@
         <v>700000</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>35.71</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>64.29000000000001</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
         <v>0</v>
       </c>
@@ -1189,69 +1822,159 @@
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
         <v>35.71</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>64.29000000000001</v>
       </c>
-      <c r="AD7">
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>35.71</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AT7">
+        <v>35.71</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="BB7">
+        <v>35.71</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>35.71</v>
+      </c>
+      <c r="BH7">
+        <v>100</v>
+      </c>
+      <c r="BI7">
+        <v>100</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>574161</v>
+        <v>75304</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
         <v>202203</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2022</v>
       </c>
-      <c r="E8">
-        <v>103974085</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>3054209094</v>
       </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J8">
+        <v>4824033000</v>
+      </c>
+      <c r="K8">
         <v>42.42424242424243</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8">
-        <v>4824033000</v>
+      <c r="L8" t="s">
+        <v>75</v>
       </c>
       <c r="M8">
         <v>11245392</v>
@@ -1263,96 +1986,186 @@
         <v>317171</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.38</v>
+      </c>
+      <c r="T8">
+        <v>31.07</v>
+      </c>
+      <c r="U8">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1.08</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>62.96</v>
+      </c>
+      <c r="AA8">
+        <v>36.66</v>
+      </c>
+      <c r="AB8">
+        <v>0.38</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>62.92</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>1.5</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>4.5</v>
       </c>
-      <c r="X8">
+      <c r="AN8">
         <v>31.07</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>3.27</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>29.68</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>67.04000000000001</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>62.54</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>35.96</v>
+      </c>
+      <c r="BB8">
+        <v>1.5</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>1.08</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>1.08</v>
+      </c>
+      <c r="BH8">
+        <v>95.5</v>
+      </c>
+      <c r="BI8">
+        <v>95.5</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>596548</v>
+        <v>78148</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
         <v>202204</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2022</v>
       </c>
-      <c r="E9">
-        <v>103974085</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>3054209094</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J9">
+        <v>4824033000</v>
+      </c>
+      <c r="K9">
         <v>42.42424242424243</v>
       </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9">
-        <v>4824033000</v>
+      <c r="L9" t="s">
+        <v>75</v>
       </c>
       <c r="M9">
         <v>54048188</v>
@@ -1364,96 +2177,186 @@
         <v>755407</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.26</v>
+      </c>
+      <c r="T9">
+        <v>0.92</v>
+      </c>
+      <c r="U9">
+        <v>0.51</v>
+      </c>
+      <c r="V9">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="W9">
+        <v>9.32</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.28</v>
+      </c>
+      <c r="Z9">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>11.82</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>1.5</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0.87</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>10.24</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>1.97</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>85.09999999999999</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>0.32</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>0.08</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>87.47</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>0.32</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>12.13</v>
       </c>
+      <c r="AX9">
+        <v>11.64</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0.08</v>
+      </c>
+      <c r="BA9">
+        <v>87.09</v>
+      </c>
+      <c r="BB9">
+        <v>1.11</v>
+      </c>
+      <c r="BC9">
+        <v>0.08</v>
+      </c>
+      <c r="BD9">
+        <v>0.79</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>1.4</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="BI9">
+        <v>100</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>618936</v>
+        <v>81002</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
         <v>202205</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2022</v>
       </c>
-      <c r="E10">
-        <v>103974085</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>3054209094</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J10">
+        <v>4824033000</v>
+      </c>
+      <c r="K10">
         <v>42.42424242424243</v>
       </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10">
-        <v>4824033000</v>
+      <c r="L10" t="s">
+        <v>75</v>
       </c>
       <c r="M10">
         <v>1219610</v>
@@ -1465,57 +2368,147 @@
         <v>25956</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>28.42</v>
+      </c>
+      <c r="T10">
+        <v>23.63</v>
+      </c>
+      <c r="U10">
+        <v>47.95</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>10.79</v>
+      </c>
+      <c r="Z10">
+        <v>78.81</v>
+      </c>
+      <c r="AA10">
+        <v>10.4</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>12.84</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>10.79</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>26.28</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
         <v>50.09</v>
       </c>
-      <c r="Z10">
+      <c r="AP10">
         <v>1.5</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>9.59</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>32.53</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>56.38</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>18.79</v>
+      </c>
+      <c r="AY10">
+        <v>1.5</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>18.84</v>
+      </c>
+      <c r="BB10">
+        <v>42.81</v>
+      </c>
+      <c r="BC10">
+        <v>18.07</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>12.84</v>
+      </c>
+      <c r="BG10">
+        <v>16.74</v>
+      </c>
+      <c r="BH10">
+        <v>100</v>
+      </c>
+      <c r="BI10">
+        <v>100</v>
+      </c>
+      <c r="BJ10">
+        <v>22.2</v>
+      </c>
+      <c r="BK10">
         <v>0</v>
       </c>
     </row>

--- a/시장분석용_정보/시장분석용_4824033000.xlsx
+++ b/시장분석용_정보/시장분석용_4824033000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>2481</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>3054209094</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4824033000</v>
@@ -708,7 +612,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>4673944</v>
@@ -720,50 +624,50 @@
         <v>454000</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>99.12</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.88</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>99.12</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.88</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>99.12</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0.88</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>5250</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>3054209094</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4824033000</v>
@@ -854,7 +710,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>4688250</v>
@@ -866,7 +722,7 @@
         <v>459800</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -875,108 +731,60 @@
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>97.87</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>2.13</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>97.87</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>2.13</v>
       </c>
-      <c r="Z3">
-        <v>97.87</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>97.87</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>2.13</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>97.87</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>2.13</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>24640</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202009</v>
@@ -988,10 +796,10 @@
         <v>3054209094</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4824033000</v>
@@ -1000,7 +808,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>7717229</v>
@@ -1012,7 +820,7 @@
         <v>754500</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1021,26 +829,26 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0.6</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>99.40000000000001</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>100</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -1054,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1065,64 +873,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0.6</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AT4">
-        <v>0.6</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>27429</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202010</v>
@@ -1134,10 +894,10 @@
         <v>3054209094</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4824033000</v>
@@ -1146,7 +906,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>12828266</v>
@@ -1158,37 +918,37 @@
         <v>1254100</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>100</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>100</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1200,75 +960,27 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>99.67</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>100</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0.33</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>99.67</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>33013</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202012</v>
@@ -1280,10 +992,10 @@
         <v>3054209094</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4824033000</v>
@@ -1292,7 +1004,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>4657856</v>
@@ -1304,50 +1016,50 @@
         <v>457850</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>98.29000000000001</v>
+      </c>
+      <c r="AC6">
         <v>1.71</v>
       </c>
-      <c r="T6">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>100</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1355,66 +1067,18 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.71</v>
-      </c>
-      <c r="AG6">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>98.29000000000001</v>
-      </c>
-      <c r="AS6">
-        <v>1.71</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>41399</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202103</v>
@@ -1426,10 +1090,10 @@
         <v>3054209094</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4824033000</v>
@@ -1438,7 +1102,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>7083664</v>
@@ -1450,50 +1114,50 @@
         <v>700000</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>35.71</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>64.29000000000001</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="AC7">
         <v>35.71</v>
       </c>
-      <c r="Z7">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
         <v>0</v>
       </c>
@@ -1503,64 +1167,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>35.71</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="AS7">
-        <v>35.71</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>75304</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202203</v>
@@ -1572,10 +1188,10 @@
         <v>3054209094</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4824033000</v>
@@ -1584,7 +1200,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>11245392</v>
@@ -1596,52 +1212,52 @@
         <v>317171</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>62.92</v>
       </c>
       <c r="R8">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>4.5</v>
+      </c>
+      <c r="W8">
         <v>31.07</v>
       </c>
-      <c r="T8">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>1.08</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>62.96</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>36.66</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>29.68</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1649,64 +1265,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>62.92</v>
-      </c>
-      <c r="AH8">
-        <v>1.5</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>4.5</v>
-      </c>
-      <c r="AM8">
-        <v>31.07</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>3.27</v>
-      </c>
-      <c r="AS8">
-        <v>29.68</v>
-      </c>
-      <c r="AT8">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>78148</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202204</v>
@@ -1718,10 +1286,10 @@
         <v>3054209094</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4824033000</v>
@@ -1730,7 +1298,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>54048188</v>
@@ -1742,117 +1310,69 @@
         <v>755407</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.26</v>
+        <v>0.87</v>
       </c>
       <c r="S9">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>86.98999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="V9">
-        <v>9.32</v>
+        <v>1.97</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="X9">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="Y9">
-        <v>87.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>87.47</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.5</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0.87</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>10.24</v>
-      </c>
-      <c r="AL9">
-        <v>1.97</v>
-      </c>
-      <c r="AM9">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>0.32</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0.08</v>
-      </c>
-      <c r="AS9">
-        <v>87.47</v>
-      </c>
-      <c r="AT9">
-        <v>0.32</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
         <v>12.13</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>81002</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202205</v>
@@ -1864,10 +1384,10 @@
         <v>3054209094</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4824033000</v>
@@ -1876,7 +1396,7 @@
         <v>42.42424242424243</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>1219610</v>
@@ -1888,105 +1408,57 @@
         <v>25956</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>28.42</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>23.63</v>
+        <v>10.79</v>
       </c>
       <c r="T10">
-        <v>47.95</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>26.28</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>10.79</v>
+        <v>50.09</v>
       </c>
       <c r="Y10">
-        <v>78.81</v>
+        <v>1.5</v>
       </c>
       <c r="Z10">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>32.53</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>56.38</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>12.84</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>10.79</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>26.28</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>50.09</v>
-      </c>
-      <c r="AO10">
-        <v>1.5</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>9.59</v>
-      </c>
-      <c r="AS10">
-        <v>32.53</v>
-      </c>
-      <c r="AT10">
-        <v>56.38</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
         <v>0</v>
       </c>
     </row>
